--- a/csv/export-fundanet/scopus.xlsx
+++ b/csv/export-fundanet/scopus.xlsx
@@ -124,8 +124,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -149,116 +153,116 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="27.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="27.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>14215</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>87</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>15622</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
+        <v>8.3195</v>
+      </c>
+      <c r="H3" s="1" t="n">
         <v>-1</v>
       </c>
-      <c r="H3" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="J3" s="0" t="n">
+      <c r="I3" s="1" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="J3" s="1" t="n">
         <v>58</v>
       </c>
     </row>

--- a/csv/export-fundanet/scopus.xlsx
+++ b/csv/export-fundanet/scopus.xlsx
@@ -153,7 +153,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -257,7 +257,7 @@
         <v>8.3195</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>16.67</v>

--- a/csv/export-fundanet/scopus.xlsx
+++ b/csv/export-fundanet/scopus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\indicadors\csv\export-fundanet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B60AAEC-8266-468B-9BA0-01AC71FC2890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE4BDF4-D52F-4D55-871F-93A4A32227B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -438,7 +438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>2024</v>
       </c>
       <c r="B3">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -546,10 +546,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>16.670000000000002</v>
+        <v>13.95</v>
       </c>
       <c r="J3">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
